--- a/data/spices.xlsx
+++ b/data/spices.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
